--- a/data/trans_dic/ProbViv_estruc-Clase-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,52; 11,04</t>
+          <t>5,76; 11,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,47; 8,61</t>
+          <t>4,53; 8,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,54; 9,07</t>
+          <t>5,7; 9,07</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,07; 9,75</t>
+          <t>5,15; 10,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 8,39</t>
+          <t>4,41; 8,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 8,4</t>
+          <t>5,22; 8,69</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 9,94</t>
+          <t>1,88; 9,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,34; 13,52</t>
+          <t>6,37; 13,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 9,78</t>
+          <t>2,27; 9,72</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 10,65</t>
+          <t>7,04; 10,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,04; 63,74</t>
+          <t>9,21; 64,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,66; 41,26</t>
+          <t>8,69; 44,51</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,08; 21,59</t>
+          <t>13,87; 21,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,54; 15,57</t>
+          <t>9,17; 15,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,87; 16,69</t>
+          <t>11,75; 16,83</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,13; 12,78</t>
+          <t>2,32; 13,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,34; 12,41</t>
+          <t>8,57; 12,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,58; 11,52</t>
+          <t>7,54; 11,31</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,82; 10,04</t>
+          <t>6,79; 10,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,29; 31,15</t>
+          <t>9,49; 31,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,92; 20,15</t>
+          <t>8,94; 20,17</t>
         </is>
       </c>
     </row>
@@ -913,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con problemas estructurales en la vivienda (goteras, humedades, podredumbre)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>39726</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>27731</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>67457</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>29096; 56788</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>20197; 38846</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>54261; 86266</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>32558</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>23039</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>55597</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>23300; 45902</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>16884; 32604</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>43568; 72551</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>37967</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>16020</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>53988</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>12552; 63858</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>10626; 22957</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18964; 81115</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>89385</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>279471</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>368855</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>72808; 111303</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>90004; 632412</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>174797; 895588</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>82619</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>106979</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>189598</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>65881; 103129</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>77113; 128400</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>154633; 221531</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>13573</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>78711</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>92284</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5568; 31682</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>65232; 95227</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>75448; 113254</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>835</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>295830</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>531950</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>827779</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>229283; 339891</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>339142; 1109532</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>621512; 1402046</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/ProbViv_estruc-Clase-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Clase-trans_dic.xlsx
@@ -797,7 +797,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1357,7 +1357,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
